--- a/DFT Calculations/gp_start_folder_empty/pyrz_extracted_properties.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrz_extracted_properties.xlsx
@@ -1318,7 +1318,7 @@
         <v>510.1791009623642</v>
       </c>
       <c r="AD4">
-        <v>0.8844135515293706</v>
+        <v>0.8844135515293707</v>
       </c>
       <c r="AE4">
         <v>-0.43312</v>
@@ -1402,7 +1402,7 @@
         <v>0.7936231836161479</v>
       </c>
       <c r="BF4">
-        <v>0.2090776789458537</v>
+        <v>0.2090776789457177</v>
       </c>
       <c r="BG4">
         <v>0.03146200649040759</v>
@@ -1509,7 +1509,7 @@
         <v>509.8156438713069</v>
       </c>
       <c r="AD5">
-        <v>0.88429739298162</v>
+        <v>0.8842973929816201</v>
       </c>
       <c r="AE5">
         <v>-0.43308</v>
@@ -1700,7 +1700,7 @@
         <v>337.1146515838956</v>
       </c>
       <c r="AD6">
-        <v>0.9328689500459686</v>
+        <v>0.9328689500459684</v>
       </c>
       <c r="AE6">
         <v>-0.6396500000000001</v>
@@ -1766,7 +1766,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="AZ6">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="BA6">
         <v>6.774799422041132</v>
@@ -1775,7 +1775,7 @@
         <v>1.886709021815094</v>
       </c>
       <c r="BC6">
-        <v>3.252395268825163</v>
+        <v>3.252395268825164</v>
       </c>
       <c r="BD6">
         <v>5.951585126682453</v>
@@ -1969,7 +1969,7 @@
         <v>3.264140261329424</v>
       </c>
       <c r="BD7">
-        <v>5.900067661247692</v>
+        <v>5.900067661247697</v>
       </c>
       <c r="BE7">
         <v>0.7987310136078716</v>
